--- a/src/main/resources/excel/result_temp.xlsx
+++ b/src/main/resources/excel/result_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="806"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="806" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="虚战力简表" sheetId="12" r:id="rId1"/>
@@ -15,11 +15,14 @@
     <sheet name="武随榜" sheetId="2" r:id="rId6"/>
     <sheet name="智随榜" sheetId="3" r:id="rId7"/>
     <sheet name="兵随榜" sheetId="4" r:id="rId8"/>
-    <sheet name="命格材料表" sheetId="5" r:id="rId9"/>
-    <sheet name="战器被动关卡表" sheetId="7" r:id="rId10"/>
-    <sheet name="大师关卡资源表" sheetId="8" r:id="rId11"/>
-    <sheet name="工坊" sheetId="9" r:id="rId12"/>
-    <sheet name="其他" sheetId="11" r:id="rId13"/>
+    <sheet name="极限武力榜" sheetId="15" r:id="rId9"/>
+    <sheet name="极限智力榜" sheetId="16" r:id="rId10"/>
+    <sheet name="极限兵力榜" sheetId="17" r:id="rId11"/>
+    <sheet name="命格材料表" sheetId="5" r:id="rId12"/>
+    <sheet name="战器被动关卡表" sheetId="7" r:id="rId13"/>
+    <sheet name="大师关卡资源表" sheetId="8" r:id="rId14"/>
+    <sheet name="工坊" sheetId="9" r:id="rId15"/>
+    <sheet name="其他" sheetId="11" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2147,10 +2150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2183,22 +2186,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2303,6 +2291,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2310,20 +2321,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2434,31 +2437,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,12 +2509,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2519,6 +2522,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2560,7 +2569,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,48 +2618,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2779,26 +2782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2814,6 +2808,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2853,17 +2856,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2884,10 +2887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2896,133 +2899,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3677,7 +3680,7 @@
   <sheetPr/>
   <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4194,6 +4197,404 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="13" width="15.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:13">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A3" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="60">
+        <v>10</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" ht="54" customHeight="1" spans="1:13">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" customFormat="1" ht="54" customHeight="1" spans="1:13">
+      <c r="A5" s="60"/>
+      <c r="B5" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="46"/>
+    </row>
+    <row r="6" ht="36" customHeight="1" spans="1:13">
+      <c r="A6" s="60"/>
+      <c r="B6" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A7" s="60"/>
+      <c r="B7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A8" s="60"/>
+      <c r="B8" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A9" s="60"/>
+      <c r="B9" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A10" s="60"/>
+      <c r="B10" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" ht="72" customHeight="1" spans="1:13">
+      <c r="A11" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="61">
+        <v>5</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" ht="90" customHeight="1" spans="1:13">
+      <c r="A12" s="46"/>
+      <c r="B12" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+    </row>
+    <row r="13" ht="72" customHeight="1" spans="1:13">
+      <c r="A13" s="46"/>
+      <c r="B13" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="66"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="71"/>
+    </row>
+    <row r="14" ht="72" customHeight="1" spans="1:13">
+      <c r="A14" s="46"/>
+      <c r="B14" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:MW36"/>
@@ -16848,7 +17249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AE34"/>
@@ -18512,7 +18913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AG58"/>
@@ -22526,7 +22927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -25418,364 +25819,14 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="13" width="15.875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:13">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A3" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="60">
-        <v>10</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-    </row>
-    <row r="4" ht="54" customHeight="1" spans="1:13">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-    </row>
-    <row r="5" customFormat="1" ht="54" customHeight="1" spans="1:13">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M5" s="46"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:13">
-      <c r="A6" s="60"/>
-      <c r="B6" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="60"/>
-      <c r="B7" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A8" s="60"/>
-      <c r="B8" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="60"/>
-      <c r="B9" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A10" s="60"/>
-      <c r="B10" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-    </row>
-    <row r="11" ht="72" customHeight="1" spans="1:13">
-      <c r="A11" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="61">
-        <v>5</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" ht="90" customHeight="1" spans="1:13">
-      <c r="A12" s="46"/>
-      <c r="B12" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-    </row>
-    <row r="13" ht="72" customHeight="1" spans="1:13">
-      <c r="A13" s="46"/>
-      <c r="B13" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" s="71"/>
-    </row>
-    <row r="14" ht="72" customHeight="1" spans="1:13">
-      <c r="A14" s="46"/>
-      <c r="B14" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="E11:E14"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/excel/result_temp.xlsx
+++ b/src/main/resources/excel/result_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="12060" tabRatio="806"/>
+    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="虚战力简表" sheetId="12" r:id="rId1"/>
@@ -1079,40 +1079,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="347">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>因缺少部分卡片属性数据，以下排名中上阵武将及随从不包含：狼顾司马懿、独目夏侯惇、恶来典韦、征南曹仁、七星诸葛亮、麒麟姜维、暴怒张飞、桓侯张飞、讨虏黄忠、狂骨魏延、顾曲周瑜、战姬吕玲绮、修罗吕布
-安卓1服炽阳天下出品,如发现错误之处，欢迎指正！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建议使用WPS查看表格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。啪啪三国技术交流群：913083053
-更新内容：1.新增武将：堕天·豹魂祝融夫人</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="348">
+  <si>
+    <t>${top}</t>
   </si>
   <si>
     <t>排名</t>
@@ -1319,6 +1288,9 @@
     <t>[${item.countryNames}]  [${item.armsNames}]</t>
   </si>
   <si>
+    <t>${advert}</t>
+  </si>
+  <si>
     <t>${item.total2}</t>
   </si>
   <si>
@@ -1352,7 +1324,7 @@
     <t>${g.device2.QuenchingName2}</t>
   </si>
   <si>
-    <t>基础+科技+四圣石+兵种+将魂+命格突破</t>
+    <t>基础+科技+四圣石+兵种+将魂+命格突破+幻化</t>
   </si>
   <si>
     <t>武将</t>
@@ -2190,9 +2162,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2217,14 +2189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2253,15 +2225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2269,37 +2233,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2323,7 +2256,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2338,6 +2294,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -2345,16 +2317,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2465,25 +2437,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2501,13 +2479,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,7 +2533,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,31 +2569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2573,7 +2581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2585,67 +2605,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,17 +2806,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2854,15 +2820,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2882,6 +2839,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2896,17 +2879,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2915,10 +2887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2927,133 +2899,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="44" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3722,7 +3694,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3754,7 +3726,7 @@
     <col min="36" max="36" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:36">
+    <row r="1" ht="72" customHeight="1" spans="1:36">
       <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
@@ -4197,7 +4169,9 @@
       <c r="AJ8" s="100"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="89"/>
+      <c r="A9" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -4302,93 +4276,93 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="36" customHeight="1" spans="1:17">
       <c r="A2" s="23"/>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J2" s="58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K2" s="59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M2" s="59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N2" s="58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P2" s="59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="71" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A3" s="53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="53">
         <v>40</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" s="61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L3" s="60"/>
       <c r="M3" s="61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N3" s="46"/>
       <c r="O3" s="5">
@@ -4401,30 +4375,30 @@
     </row>
     <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A4" s="62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="62">
         <v>10</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4" s="62"/>
       <c r="I4" s="62"/>
       <c r="J4" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K4" s="62"/>
       <c r="L4" s="62"/>
@@ -4437,22 +4411,22 @@
     <row r="5" ht="54" customHeight="1" spans="1:17">
       <c r="A5" s="62"/>
       <c r="B5" s="63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
       <c r="F5" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L5" s="46"/>
       <c r="M5" s="46"/>
@@ -4464,23 +4438,23 @@
     <row r="6" customFormat="1" ht="54" customHeight="1" spans="1:17">
       <c r="A6" s="62"/>
       <c r="B6" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
       <c r="F6" s="46"/>
       <c r="G6" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="46"/>
       <c r="K6" s="46"/>
       <c r="L6" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M6" s="46"/>
       <c r="N6" s="72"/>
@@ -4491,7 +4465,7 @@
     <row r="7" ht="36" customHeight="1" spans="1:17">
       <c r="A7" s="62"/>
       <c r="B7" s="63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -4499,16 +4473,16 @@
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
       <c r="H7" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J7" s="46"/>
       <c r="K7" s="46"/>
       <c r="L7" s="46"/>
       <c r="M7" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
@@ -4518,24 +4492,24 @@
     <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A8" s="62"/>
       <c r="B8" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
       <c r="F8" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
       <c r="K8" s="46"/>
       <c r="L8" s="46"/>
       <c r="M8" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
@@ -4545,24 +4519,24 @@
     <row r="9" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A9" s="62"/>
       <c r="B9" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
       <c r="F9" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
       <c r="I9" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
       <c r="M9" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
@@ -4572,21 +4546,21 @@
     <row r="10" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A10" s="62"/>
       <c r="B10" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
       <c r="F10" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="46"/>
@@ -4599,21 +4573,21 @@
     <row r="11" customFormat="1" ht="18" customHeight="1" spans="1:17">
       <c r="A11" s="62"/>
       <c r="B11" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="53"/>
       <c r="G11" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K11" s="46"/>
       <c r="L11" s="46"/>
@@ -4625,28 +4599,28 @@
     </row>
     <row r="12" ht="72" customHeight="1" spans="1:17">
       <c r="A12" s="46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" s="66">
         <v>5</v>
       </c>
       <c r="E12" s="66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12" s="67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K12" s="46"/>
       <c r="L12" s="46"/>
@@ -4659,20 +4633,20 @@
     <row r="13" ht="90" customHeight="1" spans="1:17">
       <c r="A13" s="46"/>
       <c r="B13" s="64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
       <c r="F13" s="46"/>
       <c r="G13" s="67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="46"/>
       <c r="J13" s="74"/>
       <c r="K13" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
@@ -4684,7 +4658,7 @@
     <row r="14" ht="72" customHeight="1" spans="1:17">
       <c r="A14" s="46"/>
       <c r="B14" s="64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="62"/>
@@ -4692,13 +4666,13 @@
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M14" s="74"/>
       <c r="N14" s="72"/>
@@ -4709,7 +4683,7 @@
     <row r="15" ht="72" customHeight="1" spans="1:17">
       <c r="A15" s="46"/>
       <c r="B15" s="64" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C15" s="69"/>
       <c r="D15" s="70"/>
@@ -4718,13 +4692,13 @@
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
       <c r="I15" s="67" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
       <c r="L15" s="74"/>
       <c r="M15" s="73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
@@ -4770,7 +4744,7 @@
     <row r="1" ht="18" customHeight="1" spans="1:37">
       <c r="A1" s="48"/>
       <c r="B1" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -4811,7 +4785,7 @@
     <row r="2" ht="60" customHeight="1" spans="1:37">
       <c r="A2" s="48"/>
       <c r="B2" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4852,7 +4826,7 @@
     <row r="3" spans="1:361">
       <c r="A3" s="50"/>
       <c r="B3" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -4866,7 +4840,7 @@
       <c r="L3" s="23"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
@@ -4880,7 +4854,7 @@
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
@@ -4894,7 +4868,7 @@
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
@@ -4908,7 +4882,7 @@
       <c r="AV3" s="23"/>
       <c r="AW3" s="23"/>
       <c r="AX3" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AY3" s="23"/>
       <c r="AZ3" s="23"/>
@@ -4922,7 +4896,7 @@
       <c r="BH3" s="23"/>
       <c r="BI3" s="23"/>
       <c r="BJ3" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BK3" s="23"/>
       <c r="BL3" s="23"/>
@@ -4936,7 +4910,7 @@
       <c r="BT3" s="23"/>
       <c r="BU3" s="23"/>
       <c r="BV3" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BW3" s="23"/>
       <c r="BX3" s="23"/>
@@ -4950,7 +4924,7 @@
       <c r="CF3" s="23"/>
       <c r="CG3" s="23"/>
       <c r="CH3" s="23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CI3" s="23"/>
       <c r="CJ3" s="23"/>
@@ -4964,7 +4938,7 @@
       <c r="CR3" s="23"/>
       <c r="CS3" s="23"/>
       <c r="CT3" s="23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CU3" s="23"/>
       <c r="CV3" s="23"/>
@@ -4978,7 +4952,7 @@
       <c r="DD3" s="23"/>
       <c r="DE3" s="23"/>
       <c r="DF3" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DG3" s="23"/>
       <c r="DH3" s="23"/>
@@ -4992,7 +4966,7 @@
       <c r="DP3" s="23"/>
       <c r="DQ3" s="23"/>
       <c r="DR3" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DS3" s="23"/>
       <c r="DT3" s="23"/>
@@ -5006,7 +4980,7 @@
       <c r="EB3" s="23"/>
       <c r="EC3" s="23"/>
       <c r="ED3" s="23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="EE3" s="23"/>
       <c r="EF3" s="23"/>
@@ -5020,7 +4994,7 @@
       <c r="EN3" s="23"/>
       <c r="EO3" s="23"/>
       <c r="EP3" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="EQ3" s="23"/>
       <c r="ER3" s="23"/>
@@ -5034,7 +5008,7 @@
       <c r="EZ3" s="23"/>
       <c r="FA3" s="23"/>
       <c r="FB3" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="FC3" s="23"/>
       <c r="FD3" s="23"/>
@@ -5048,7 +5022,7 @@
       <c r="FL3" s="23"/>
       <c r="FM3" s="23"/>
       <c r="FN3" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="FO3" s="23"/>
       <c r="FP3" s="23"/>
@@ -5062,7 +5036,7 @@
       <c r="FX3" s="23"/>
       <c r="FY3" s="23"/>
       <c r="FZ3" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="GA3" s="23"/>
       <c r="GB3" s="23"/>
@@ -5076,7 +5050,7 @@
       <c r="GJ3" s="23"/>
       <c r="GK3" s="23"/>
       <c r="GL3" s="23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="GM3" s="23"/>
       <c r="GN3" s="23"/>
@@ -5090,7 +5064,7 @@
       <c r="GV3" s="23"/>
       <c r="GW3" s="23"/>
       <c r="GX3" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="GY3" s="23"/>
       <c r="GZ3" s="23"/>
@@ -5104,7 +5078,7 @@
       <c r="HH3" s="23"/>
       <c r="HI3" s="23"/>
       <c r="HJ3" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="HK3" s="23"/>
       <c r="HL3" s="23"/>
@@ -5118,7 +5092,7 @@
       <c r="HT3" s="23"/>
       <c r="HU3" s="23"/>
       <c r="HV3" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="HW3" s="23"/>
       <c r="HX3" s="23"/>
@@ -5132,7 +5106,7 @@
       <c r="IF3" s="23"/>
       <c r="IG3" s="23"/>
       <c r="IH3" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="II3" s="23"/>
       <c r="IJ3" s="23"/>
@@ -5146,7 +5120,7 @@
       <c r="IR3" s="23"/>
       <c r="IS3" s="23"/>
       <c r="IT3" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="IU3" s="23"/>
       <c r="IV3" s="23"/>
@@ -5160,7 +5134,7 @@
       <c r="JD3" s="23"/>
       <c r="JE3" s="23"/>
       <c r="JF3" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="JG3" s="23"/>
       <c r="JH3" s="23"/>
@@ -5174,7 +5148,7 @@
       <c r="JP3" s="23"/>
       <c r="JQ3" s="23"/>
       <c r="JR3" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="JS3" s="23"/>
       <c r="JT3" s="23"/>
@@ -5188,7 +5162,7 @@
       <c r="KB3" s="23"/>
       <c r="KC3" s="23"/>
       <c r="KD3" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="KE3" s="23"/>
       <c r="KF3" s="23"/>
@@ -5202,7 +5176,7 @@
       <c r="KN3" s="23"/>
       <c r="KO3" s="23"/>
       <c r="KP3" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="KQ3" s="23"/>
       <c r="KR3" s="23"/>
@@ -5216,7 +5190,7 @@
       <c r="KZ3" s="23"/>
       <c r="LA3" s="23"/>
       <c r="LB3" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="LC3" s="23"/>
       <c r="LD3" s="23"/>
@@ -5230,7 +5204,7 @@
       <c r="LL3" s="23"/>
       <c r="LM3" s="23"/>
       <c r="LN3" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="LO3" s="23"/>
       <c r="LP3" s="23"/>
@@ -5244,7 +5218,7 @@
       <c r="LX3" s="23"/>
       <c r="LY3" s="23"/>
       <c r="LZ3" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="MA3" s="23"/>
       <c r="MB3" s="23"/>
@@ -5258,7 +5232,7 @@
       <c r="MJ3" s="23"/>
       <c r="MK3" s="23"/>
       <c r="ML3" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="MM3" s="23"/>
       <c r="MN3" s="23"/>
@@ -6359,7 +6333,7 @@
     </row>
     <row r="5" spans="1:361">
       <c r="A5" s="51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -6724,7 +6698,7 @@
     </row>
     <row r="6" spans="1:361">
       <c r="A6" s="51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="52"/>
@@ -7088,7 +7062,7 @@
     </row>
     <row r="7" spans="1:361">
       <c r="A7" s="51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -7453,7 +7427,7 @@
     </row>
     <row r="8" spans="1:361">
       <c r="A8" s="51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -7818,7 +7792,7 @@
     </row>
     <row r="9" spans="1:361">
       <c r="A9" s="51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="46"/>
@@ -8183,7 +8157,7 @@
     </row>
     <row r="10" spans="1:361">
       <c r="A10" s="51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -8548,7 +8522,7 @@
     </row>
     <row r="11" spans="1:361">
       <c r="A11" s="51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -8913,7 +8887,7 @@
     </row>
     <row r="12" spans="1:361">
       <c r="A12" s="51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -9278,7 +9252,7 @@
     </row>
     <row r="13" spans="1:361">
       <c r="A13" s="51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -9643,7 +9617,7 @@
     </row>
     <row r="14" spans="1:361">
       <c r="A14" s="23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="55"/>
@@ -10008,7 +9982,7 @@
     </row>
     <row r="15" spans="1:361">
       <c r="A15" s="51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -10372,7 +10346,7 @@
     </row>
     <row r="16" spans="1:361">
       <c r="A16" s="51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -10737,7 +10711,7 @@
     </row>
     <row r="17" spans="1:361">
       <c r="A17" s="51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -11102,7 +11076,7 @@
     </row>
     <row r="18" spans="1:361">
       <c r="A18" s="51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -11467,7 +11441,7 @@
     </row>
     <row r="19" spans="1:361">
       <c r="A19" s="51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -11832,7 +11806,7 @@
     </row>
     <row r="20" spans="1:361">
       <c r="A20" s="51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -12197,7 +12171,7 @@
     </row>
     <row r="21" spans="1:361">
       <c r="A21" s="51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -12562,7 +12536,7 @@
     </row>
     <row r="22" spans="1:361">
       <c r="A22" s="51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -12926,7 +12900,7 @@
     </row>
     <row r="23" spans="1:361">
       <c r="A23" s="51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -13291,7 +13265,7 @@
     </row>
     <row r="24" spans="1:361">
       <c r="A24" s="51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -13656,7 +13630,7 @@
     </row>
     <row r="25" spans="1:361">
       <c r="A25" s="51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -14021,7 +13995,7 @@
     </row>
     <row r="26" spans="1:361">
       <c r="A26" s="51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -14386,7 +14360,7 @@
     </row>
     <row r="27" spans="1:361">
       <c r="A27" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -14751,7 +14725,7 @@
     </row>
     <row r="28" spans="1:361">
       <c r="A28" s="51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -15116,7 +15090,7 @@
     </row>
     <row r="29" spans="1:361">
       <c r="A29" s="51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -15481,7 +15455,7 @@
     </row>
     <row r="30" spans="1:361">
       <c r="A30" s="51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -15846,7 +15820,7 @@
     </row>
     <row r="31" spans="1:361">
       <c r="A31" s="51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -16211,7 +16185,7 @@
     </row>
     <row r="32" spans="1:361">
       <c r="A32" s="51" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -16576,7 +16550,7 @@
     </row>
     <row r="33" spans="1:361">
       <c r="A33" s="51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -16941,7 +16915,7 @@
     </row>
     <row r="34" spans="1:361">
       <c r="A34" s="51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -17424,99 +17398,99 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="2:31">
       <c r="B1" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H1" s="45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J1" s="45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S1" s="45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T1" s="45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U1" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V1" s="45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="X1" s="45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y1" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z1" s="45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA1" s="45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AB1" s="45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AC1" s="45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AD1" s="45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AE1" s="45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:31">
       <c r="A2" s="23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -17611,7 +17585,7 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:31">
       <c r="A3" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B3" s="46">
         <v>20</v>
@@ -17706,102 +17680,102 @@
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:31">
       <c r="A4" s="23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="W4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:31">
       <c r="A5" s="23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -17860,7 +17834,7 @@
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:31">
       <c r="A6" s="23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B6" s="46">
         <v>1</v>
@@ -17907,7 +17881,7 @@
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:31">
       <c r="A7" s="23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -17962,7 +17936,7 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:31">
       <c r="A8" s="23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -18013,39 +17987,39 @@
       </c>
       <c r="U8" s="46"/>
       <c r="V8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="W8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AB8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AC8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AD8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE8" s="47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:31">
       <c r="A9" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -18088,7 +18062,7 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:31">
       <c r="A10" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B10" s="46">
         <v>1</v>
@@ -18135,7 +18109,7 @@
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:31">
       <c r="A11" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -18176,7 +18150,7 @@
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:31">
       <c r="A12" s="23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -18215,7 +18189,7 @@
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:31">
       <c r="A13" s="23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -18254,7 +18228,7 @@
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:31">
       <c r="A14" s="23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -18295,7 +18269,7 @@
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:31">
       <c r="A15" s="23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -18334,7 +18308,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:31">
       <c r="A16" s="23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -18373,7 +18347,7 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:31">
       <c r="A17" s="23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -18414,7 +18388,7 @@
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:31">
       <c r="A18" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -18453,7 +18427,7 @@
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:31">
       <c r="A19" s="23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -18492,7 +18466,7 @@
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:31">
       <c r="A20" s="23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -18533,7 +18507,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:31">
       <c r="A21" s="23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -18572,7 +18546,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:31">
       <c r="A22" s="23" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -18611,7 +18585,7 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:31">
       <c r="A23" s="23" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -18648,7 +18622,7 @@
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:31">
       <c r="A24" s="23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -18687,7 +18661,7 @@
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:31">
       <c r="A25" s="23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46">
@@ -18724,7 +18698,7 @@
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:31">
       <c r="A26" s="23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -18761,7 +18735,7 @@
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:31">
       <c r="A27" s="23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -18800,7 +18774,7 @@
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:31">
       <c r="A28" s="23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="46">
@@ -18837,7 +18811,7 @@
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:31">
       <c r="A29" s="23" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -18874,7 +18848,7 @@
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:31">
       <c r="A30" s="23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -18913,7 +18887,7 @@
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:31">
       <c r="A31" s="23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="46">
         <v>1</v>
@@ -18950,7 +18924,7 @@
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:31">
       <c r="A32" s="23" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -18987,7 +18961,7 @@
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:31">
       <c r="A33" s="23" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -19026,7 +19000,7 @@
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:31">
       <c r="A34" s="23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" s="46">
         <v>1</v>
@@ -19125,12 +19099,12 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -19138,7 +19112,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="9"/>
       <c r="J2" s="17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -19146,7 +19120,7 @@
       <c r="N2" s="18"/>
       <c r="O2" s="19"/>
       <c r="P2" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="28"/>
       <c r="R2" s="28"/>
@@ -19154,7 +19128,7 @@
       <c r="T2" s="28"/>
       <c r="U2" s="29"/>
       <c r="V2" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
@@ -19162,7 +19136,7 @@
       <c r="Z2" s="31"/>
       <c r="AA2" s="36"/>
       <c r="AB2" s="37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC2" s="38"/>
       <c r="AD2" s="38"/>
@@ -19175,103 +19149,103 @@
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="P3" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="L3" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="U3" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="V3" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="R3" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="U3" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="32" t="s">
+      <c r="W3" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X3" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y3" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z3" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA3" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="AB3" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="X3" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="Y3" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z3" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA3" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB3" s="39" t="s">
+      <c r="AC3" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE3" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF3" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG3" s="39" t="s">
         <v>285</v>
-      </c>
-      <c r="AC3" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="AD3" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE3" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF3" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="AG3" s="39" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D4" s="10">
         <v>1</v>
@@ -19287,31 +19261,31 @@
         <v>20</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
       <c r="O4" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P4" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="26"/>
       <c r="R4" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S4" s="33"/>
       <c r="T4" s="26"/>
       <c r="U4" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
@@ -19348,31 +19322,31 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
       <c r="O5" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V5" s="34"/>
       <c r="W5" s="34"/>
@@ -19397,7 +19371,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J6" s="25">
         <v>3</v>
@@ -19444,13 +19418,13 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D7" s="10">
         <v>2</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10">
@@ -19460,47 +19434,47 @@
         <v>30</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K7" s="25"/>
       <c r="L7" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P7" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q7" s="26"/>
       <c r="R7" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T7" s="26"/>
       <c r="U7" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V7" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W7" s="34"/>
       <c r="X7" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y7" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z7" s="34"/>
       <c r="AA7" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB7" s="40">
         <v>140</v>
@@ -19531,47 +19505,47 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R8" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V8" s="34"/>
       <c r="W8" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X8" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y8" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z8" s="34"/>
       <c r="AA8" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB8" s="41"/>
       <c r="AC8" s="41"/>
@@ -19590,7 +19564,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J9" s="25">
         <v>6</v>
@@ -19645,13 +19619,13 @@
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D10" s="10">
         <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F10" s="10">
         <v>30</v>
@@ -19663,49 +19637,49 @@
         <v>48</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K10" s="25"/>
       <c r="L10" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q10" s="26"/>
       <c r="R10" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T10" s="26"/>
       <c r="U10" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W10" s="34"/>
       <c r="X10" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z10" s="34"/>
       <c r="AA10" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB10" s="40">
         <v>495</v>
@@ -19736,49 +19710,49 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L11" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T11" s="26"/>
       <c r="U11" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V11" s="34"/>
       <c r="W11" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z11" s="34"/>
       <c r="AA11" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB11" s="41"/>
       <c r="AC11" s="41"/>
@@ -19797,7 +19771,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J12" s="25">
         <v>20</v>
@@ -19852,13 +19826,13 @@
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10">
@@ -19868,47 +19842,47 @@
         <v>30</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P13" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T13" s="26"/>
       <c r="U13" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V13" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W13" s="34"/>
       <c r="X13" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z13" s="34"/>
       <c r="AA13" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB13" s="40">
         <v>140</v>
@@ -19939,47 +19913,47 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L14" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R14" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T14" s="26"/>
       <c r="U14" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V14" s="34"/>
       <c r="W14" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X14" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z14" s="34"/>
       <c r="AA14" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB14" s="41"/>
       <c r="AC14" s="41"/>
@@ -19998,7 +19972,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J15" s="25">
         <v>6</v>
@@ -20053,13 +20027,13 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D16" s="10">
         <v>4</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F16" s="10">
         <v>30</v>
@@ -20071,49 +20045,49 @@
         <v>48</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M16" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N16" s="25"/>
       <c r="O16" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="26"/>
       <c r="R16" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S16" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T16" s="26"/>
       <c r="U16" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V16" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W16" s="34"/>
       <c r="X16" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z16" s="34"/>
       <c r="AA16" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB16" s="40">
         <v>495</v>
@@ -20144,49 +20118,49 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N17" s="25"/>
       <c r="O17" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R17" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S17" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T17" s="26"/>
       <c r="U17" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V17" s="34"/>
       <c r="W17" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z17" s="34"/>
       <c r="AA17" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB17" s="41"/>
       <c r="AC17" s="41"/>
@@ -20205,7 +20179,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J18" s="25">
         <v>20</v>
@@ -20259,16 +20233,16 @@
     <row r="19" spans="1:33">
       <c r="A19" s="11"/>
       <c r="B19" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10">
@@ -20278,31 +20252,31 @@
         <v>20</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P19" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="26"/>
       <c r="R19" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S19" s="33"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
@@ -20339,31 +20313,31 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S20" s="33"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V20" s="34"/>
       <c r="W20" s="34"/>
@@ -20388,7 +20362,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J21" s="25">
         <v>3</v>
@@ -20435,13 +20409,13 @@
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D22" s="10">
         <v>2</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
@@ -20451,47 +20425,47 @@
         <v>30</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K22" s="25"/>
       <c r="L22" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P22" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="26"/>
       <c r="R22" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S22" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T22" s="26"/>
       <c r="U22" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V22" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W22" s="34"/>
       <c r="X22" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y22" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z22" s="34"/>
       <c r="AA22" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB22" s="40">
         <v>140</v>
@@ -20522,47 +20496,47 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J23" s="25"/>
       <c r="K23" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L23" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R23" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S23" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T23" s="26"/>
       <c r="U23" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V23" s="34"/>
       <c r="W23" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y23" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z23" s="34"/>
       <c r="AA23" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB23" s="41"/>
       <c r="AC23" s="41"/>
@@ -20581,7 +20555,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J24" s="25">
         <v>6</v>
@@ -20636,13 +20610,13 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D25" s="10">
         <v>4</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F25" s="10">
         <v>30</v>
@@ -20654,49 +20628,49 @@
         <v>48</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K25" s="25"/>
       <c r="L25" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M25" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P25" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q25" s="26"/>
       <c r="R25" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T25" s="26"/>
       <c r="U25" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V25" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W25" s="34"/>
       <c r="X25" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y25" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z25" s="34"/>
       <c r="AA25" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB25" s="40">
         <v>495</v>
@@ -20727,49 +20701,49 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L26" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M26" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N26" s="25"/>
       <c r="O26" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T26" s="26"/>
       <c r="U26" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V26" s="34"/>
       <c r="W26" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X26" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y26" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z26" s="34"/>
       <c r="AA26" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB26" s="41"/>
       <c r="AC26" s="41"/>
@@ -20788,7 +20762,7 @@
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J27" s="25">
         <v>20</v>
@@ -20843,13 +20817,13 @@
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D28" s="10">
         <v>4</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F28" s="10">
         <v>30</v>
@@ -20861,49 +20835,49 @@
         <v>48</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K28" s="25"/>
       <c r="L28" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M28" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N28" s="25"/>
       <c r="O28" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P28" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="26"/>
       <c r="R28" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S28" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T28" s="26"/>
       <c r="U28" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V28" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W28" s="34"/>
       <c r="X28" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y28" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z28" s="34"/>
       <c r="AA28" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB28" s="40">
         <v>495</v>
@@ -20934,49 +20908,49 @@
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="23" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J29" s="25"/>
       <c r="K29" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L29" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M29" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N29" s="25"/>
       <c r="O29" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P29" s="26"/>
       <c r="Q29" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R29" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S29" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T29" s="26"/>
       <c r="U29" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V29" s="34"/>
       <c r="W29" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y29" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z29" s="34"/>
       <c r="AA29" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB29" s="41"/>
       <c r="AC29" s="41"/>
@@ -20995,7 +20969,7 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J30" s="25">
         <v>20</v>
@@ -21048,19 +21022,19 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10">
@@ -21070,31 +21044,31 @@
         <v>20</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" s="25"/>
       <c r="L31" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P31" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q31" s="26"/>
       <c r="R31" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S31" s="33"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
@@ -21131,31 +21105,31 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P32" s="26"/>
       <c r="Q32" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R32" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S32" s="33"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
@@ -21180,7 +21154,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J33" s="25">
         <v>3</v>
@@ -21227,13 +21201,13 @@
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D34" s="10">
         <v>2</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10">
@@ -21243,47 +21217,47 @@
         <v>30</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K34" s="25"/>
       <c r="L34" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P34" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="26"/>
       <c r="R34" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T34" s="26"/>
       <c r="U34" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V34" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W34" s="34"/>
       <c r="X34" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y34" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z34" s="34"/>
       <c r="AA34" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB34" s="40">
         <v>140</v>
@@ -21314,47 +21288,47 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J35" s="25"/>
       <c r="K35" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P35" s="26"/>
       <c r="Q35" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R35" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T35" s="26"/>
       <c r="U35" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V35" s="34"/>
       <c r="W35" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X35" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y35" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z35" s="34"/>
       <c r="AA35" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB35" s="41"/>
       <c r="AC35" s="41"/>
@@ -21373,7 +21347,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J36" s="25">
         <v>6</v>
@@ -21428,13 +21402,13 @@
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D37" s="10">
         <v>4</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F37" s="10">
         <v>30</v>
@@ -21446,49 +21420,49 @@
         <v>48</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K37" s="25"/>
       <c r="L37" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N37" s="25"/>
       <c r="O37" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P37" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q37" s="26"/>
       <c r="R37" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S37" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T37" s="26"/>
       <c r="U37" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V37" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W37" s="34"/>
       <c r="X37" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y37" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z37" s="34"/>
       <c r="AA37" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB37" s="40">
         <v>495</v>
@@ -21519,49 +21493,49 @@
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M38" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N38" s="25"/>
       <c r="O38" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P38" s="26"/>
       <c r="Q38" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R38" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S38" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T38" s="26"/>
       <c r="U38" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V38" s="34"/>
       <c r="W38" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X38" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y38" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z38" s="34"/>
       <c r="AA38" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB38" s="41"/>
       <c r="AC38" s="41"/>
@@ -21580,7 +21554,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="12"/>
       <c r="I39" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J39" s="25">
         <v>20</v>
@@ -21635,13 +21609,13 @@
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D40" s="10">
         <v>4</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F40" s="10">
         <v>30</v>
@@ -21653,49 +21627,49 @@
         <v>48</v>
       </c>
       <c r="I40" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K40" s="25"/>
       <c r="L40" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N40" s="25"/>
       <c r="O40" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P40" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T40" s="26"/>
       <c r="U40" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V40" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W40" s="34"/>
       <c r="X40" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z40" s="34"/>
       <c r="AA40" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB40" s="40">
         <v>495</v>
@@ -21726,49 +21700,49 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J41" s="25"/>
       <c r="K41" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L41" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M41" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N41" s="25"/>
       <c r="O41" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P41" s="26"/>
       <c r="Q41" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R41" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V41" s="34"/>
       <c r="W41" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X41" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y41" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z41" s="34"/>
       <c r="AA41" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB41" s="41"/>
       <c r="AC41" s="41"/>
@@ -21787,7 +21761,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="12"/>
       <c r="I42" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J42" s="25">
         <v>20</v>
@@ -21841,16 +21815,16 @@
     <row r="43" spans="1:33">
       <c r="A43" s="11"/>
       <c r="B43" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D43" s="10">
         <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10">
@@ -21860,31 +21834,31 @@
         <v>20</v>
       </c>
       <c r="I43" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K43" s="25"/>
       <c r="L43" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P43" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q43" s="26"/>
       <c r="R43" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S43" s="33"/>
       <c r="T43" s="26"/>
       <c r="U43" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V43" s="34"/>
       <c r="W43" s="34"/>
@@ -21921,31 +21895,31 @@
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J44" s="25"/>
       <c r="K44" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L44" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P44" s="26"/>
       <c r="Q44" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R44" s="33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="S44" s="33"/>
       <c r="T44" s="26"/>
       <c r="U44" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V44" s="34"/>
       <c r="W44" s="34"/>
@@ -21970,7 +21944,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J45" s="25">
         <v>3</v>
@@ -22017,13 +21991,13 @@
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10">
@@ -22033,47 +22007,47 @@
         <v>30</v>
       </c>
       <c r="I46" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K46" s="25"/>
       <c r="L46" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P46" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q46" s="26"/>
       <c r="R46" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T46" s="26"/>
       <c r="U46" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V46" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W46" s="34"/>
       <c r="X46" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y46" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z46" s="34"/>
       <c r="AA46" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB46" s="40">
         <v>140</v>
@@ -22104,47 +22078,47 @@
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J47" s="25"/>
       <c r="K47" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L47" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P47" s="26"/>
       <c r="Q47" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T47" s="26"/>
       <c r="U47" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V47" s="34"/>
       <c r="W47" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X47" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y47" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z47" s="34"/>
       <c r="AA47" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB47" s="41"/>
       <c r="AC47" s="41"/>
@@ -22163,7 +22137,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J48" s="25">
         <v>6</v>
@@ -22218,13 +22192,13 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F49" s="10">
         <v>30</v>
@@ -22236,49 +22210,49 @@
         <v>48</v>
       </c>
       <c r="I49" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K49" s="25"/>
       <c r="L49" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N49" s="25"/>
       <c r="O49" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P49" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q49" s="26"/>
       <c r="R49" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S49" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T49" s="26"/>
       <c r="U49" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V49" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W49" s="34"/>
       <c r="X49" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y49" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z49" s="34"/>
       <c r="AA49" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB49" s="40">
         <v>495</v>
@@ -22309,49 +22283,49 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J50" s="25"/>
       <c r="K50" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L50" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M50" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N50" s="25"/>
       <c r="O50" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P50" s="26"/>
       <c r="Q50" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R50" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S50" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T50" s="26"/>
       <c r="U50" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V50" s="34"/>
       <c r="W50" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X50" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y50" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z50" s="34"/>
       <c r="AA50" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB50" s="41"/>
       <c r="AC50" s="41"/>
@@ -22370,7 +22344,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="12"/>
       <c r="I51" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J51" s="25">
         <v>20</v>
@@ -22425,13 +22399,13 @@
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D52" s="10">
         <v>2</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10">
@@ -22441,47 +22415,47 @@
         <v>30</v>
       </c>
       <c r="I52" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K52" s="25"/>
       <c r="L52" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
       <c r="O52" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P52" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q52" s="26"/>
       <c r="R52" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S52" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T52" s="26"/>
       <c r="U52" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V52" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W52" s="34"/>
       <c r="X52" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y52" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z52" s="34"/>
       <c r="AA52" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB52" s="40">
         <v>140</v>
@@ -22512,47 +22486,47 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
       <c r="I53" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J53" s="25"/>
       <c r="K53" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L53" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
       <c r="O53" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P53" s="26"/>
       <c r="Q53" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S53" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="T53" s="26"/>
       <c r="U53" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V53" s="34"/>
       <c r="W53" s="34" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="X53" s="34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y53" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z53" s="34"/>
       <c r="AA53" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB53" s="41"/>
       <c r="AC53" s="41"/>
@@ -22571,7 +22545,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J54" s="25">
         <v>6</v>
@@ -22626,13 +22600,13 @@
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D55" s="10">
         <v>4</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F55" s="15">
         <v>30</v>
@@ -22644,49 +22618,49 @@
         <v>48</v>
       </c>
       <c r="I55" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M55" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N55" s="25"/>
       <c r="O55" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P55" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q55" s="26"/>
       <c r="R55" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S55" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T55" s="26"/>
       <c r="U55" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V55" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="W55" s="34"/>
       <c r="X55" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y55" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z55" s="34"/>
       <c r="AA55" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB55" s="40">
         <v>495</v>
@@ -22717,49 +22691,49 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J56" s="25"/>
       <c r="K56" s="25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L56" s="25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M56" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N56" s="25"/>
       <c r="O56" s="25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P56" s="26"/>
       <c r="Q56" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R56" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S56" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T56" s="26"/>
       <c r="U56" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V56" s="34"/>
       <c r="W56" s="34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X56" s="34" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y56" s="34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z56" s="34"/>
       <c r="AA56" s="34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB56" s="41"/>
       <c r="AC56" s="41"/>
@@ -22778,7 +22752,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
       <c r="I57" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J57" s="25">
         <v>20</v>
@@ -23107,7 +23081,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23139,8 +23113,10 @@
     <col min="36" max="36" width="19.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:36">
-      <c r="A1" s="77"/>
+    <row r="1" ht="72" customHeight="1" spans="1:36">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -23282,16 +23258,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="81" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="81" t="s">
         <v>37</v>
@@ -23306,7 +23282,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" s="81" t="s">
         <v>42</v>
@@ -23345,25 +23321,25 @@
         <v>53</v>
       </c>
       <c r="W3" s="81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" s="81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="81" t="s">
         <v>61</v>
@@ -23580,7 +23556,9 @@
       <c r="AJ8" s="100"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="89"/>
+      <c r="A9" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -23638,7 +23616,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23670,8 +23648,10 @@
     <col min="36" max="36" width="19.5" style="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:36">
-      <c r="A1" s="102"/>
+    <row r="1" ht="72" customHeight="1" spans="1:36">
+      <c r="A1" s="102" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -24112,7 +24092,9 @@
       <c r="AJ8" s="100"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="89"/>
+      <c r="A9" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -24186,7 +24168,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24218,8 +24200,10 @@
     <col min="36" max="36" width="19.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:36">
-      <c r="A1" s="77"/>
+    <row r="1" ht="72" customHeight="1" spans="1:36">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -24362,16 +24346,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="81" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="81" t="s">
         <v>37</v>
@@ -24386,7 +24370,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" s="81" t="s">
         <v>42</v>
@@ -24425,25 +24409,25 @@
         <v>53</v>
       </c>
       <c r="W3" s="81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" s="81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="81" t="s">
         <v>61</v>
@@ -24660,7 +24644,9 @@
       <c r="AJ8" s="100"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="89"/>
+      <c r="A9" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -24984,7 +24970,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25016,8 +25002,10 @@
     <col min="36" max="36" width="19.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:36">
-      <c r="A1" s="77"/>
+    <row r="1" ht="72" customHeight="1" spans="1:36">
+      <c r="A1" s="77" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -25160,16 +25148,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="81" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="81" t="s">
         <v>37</v>
@@ -25184,7 +25172,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" s="81" t="s">
         <v>42</v>
@@ -25223,25 +25211,25 @@
         <v>53</v>
       </c>
       <c r="W3" s="81" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" s="81" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" s="81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" s="81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" s="81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" s="81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" s="81" t="s">
         <v>61</v>
@@ -25458,7 +25446,9 @@
       <c r="AJ8" s="100"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:36">
-      <c r="A9" s="89"/>
+      <c r="A9" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="B9" s="88"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -25782,7 +25772,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -25799,7 +25789,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
       <c r="A1" s="75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -25813,16 +25803,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>21</v>
@@ -25836,28 +25826,28 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:8">
       <c r="A3" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -25878,7 +25868,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -25892,7 +25882,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
       <c r="A1" s="75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -25906,16 +25896,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>21</v>
@@ -25929,28 +25919,28 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:8">
       <c r="A3" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -25971,7 +25961,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H$1:H$1048576"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -25985,7 +25975,7 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:7">
       <c r="A1" s="75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -25999,16 +25989,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>21</v>
@@ -26022,28 +26012,28 @@
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:8">
       <c r="A3" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/result_temp.xlsx
+++ b/src/main/resources/excel/result_temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" tabRatio="806"/>
+    <workbookView windowWidth="20490" windowHeight="8010" tabRatio="806" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="虚战力简表" sheetId="12" r:id="rId1"/>
@@ -1556,7 +1556,8 @@
     <t>郡主孙尚香
 鬼谋郭嘉
 斩锋高顺
-落英黄舞蝶</t>
+落英黄舞蝶
+绝情张春华</t>
   </si>
   <si>
     <t xml:space="preserve">特殊战器：第26章（普通精英11、12关）  建议刷第29章（普通精英12关）  </t>
@@ -2162,11 +2163,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2189,14 +2190,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2217,15 +2219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2239,17 +2235,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2263,23 +2251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2310,8 +2282,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,10 +2320,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="49">
@@ -2437,37 +2449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,43 +2467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,7 +2485,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2545,79 +2623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,35 +2794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2819,7 +2813,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2865,17 +2859,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2887,10 +2899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2899,133 +2911,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="44" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3689,7 +3701,7 @@
   <sheetPr/>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4256,12 +4268,12 @@
   <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/excel/result_temp.xlsx
+++ b/src/main/resources/excel/result_temp.xlsx
@@ -1550,7 +1550,8 @@
     <t>龙驹马云禄
 驱虎荀彧
 伶歌卞夫人
-奇谋法正</t>
+奇谋法正
+汉寿亭候云长</t>
   </si>
   <si>
     <t>郡主孙尚香
@@ -2163,9 +2164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2190,7 +2191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2198,7 +2199,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2219,47 +2220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2273,11 +2235,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2298,14 +2282,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2313,7 +2297,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,8 +2326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,19 +2450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,13 +2468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,13 +2486,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,6 +2552,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2539,49 +2606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,37 +2624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2794,6 +2795,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2813,37 +2868,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2855,30 +2880,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2899,10 +2900,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2911,133 +2912,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4269,11 +4270,11 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
